--- a/Excel2Json/bin/example.xlsx
+++ b/Excel2Json/bin/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Slanted_Structure\Excel2Json\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0D219D-E4EA-485C-B970-FAB80D694D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC1C39A-DA85-4465-BCCD-DC2D396F20B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="101110" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,6 +381,10 @@
   </si>
   <si>
     <t>하….내가 왜 저런 말을 들어야 되지..? 괜히 혼자 다른 곳으로 왔나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,23 +920,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -943,7 +947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -954,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -965,7 +969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -976,7 +980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -987,7 +991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -998,7 +1002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1053,7 +1057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1064,7 +1068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1075,7 +1079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1086,7 +1090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1097,7 +1101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1108,7 +1112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1132,18 +1136,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87F7E20-8753-40E4-81EB-D34783C8B699}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
         <v>9</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1168,7 +1172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1233,8 +1237,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1262,7 +1266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1276,7 +1280,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>45</v>
       </c>
@@ -1312,7 +1316,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>46</v>
       </c>
@@ -1320,7 +1324,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>47</v>
       </c>
@@ -1328,12 +1332,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1361,12 +1365,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1408,12 +1412,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1441,7 +1445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1455,7 +1459,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1469,7 +1473,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1497,14 +1501,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1515,7 +1519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1532,7 +1536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1580,13 +1584,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1601,17 +1605,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
